--- a/Excel/UnitConfig.xlsx
+++ b/Excel/UnitConfig.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE9B6D0-EE1E-4B3E-BEE4-B31EB2B85C89}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1911EACE-3495-4538-B4CA-C9520641E42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -15,28 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
-  <si>
-    <t>名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>体重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -45,46 +29,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>米克尔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#测试说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>带有强力攻击技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Desc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Position</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Height</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -94,6 +42,126 @@
   </si>
   <si>
     <t>AppType.ClientH |  AppType.ClientM | AppType.Gate | AppType.Map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#技能Id表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能的Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火球术技能Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#技能基础信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放一枚火球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#技能Id与基础内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火球术技能Id与内容Id映射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷却时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseDamageValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamagePlusType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#实体Id表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火球术技能的火球实体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1*0.75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>formula</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#动画Id表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火球术技能的动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#特效Id表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火球术技能的特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能产生的实体Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillUnitInfoId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能的动画Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能的特效Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillAnimInfoId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillEffectInfoId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -101,7 +169,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +195,14 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -158,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -168,6 +244,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -506,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -517,106 +594,285 @@
     <col min="1" max="1" width="21.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="6.75" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C6" s="3">
+        <v>10001</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C6" s="3">
-        <v>1001</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C12" s="3">
+        <v>20001</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3</v>
+      </c>
+      <c r="F12" s="3">
+        <v>178</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="F17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C18" s="3">
+        <v>30001</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="3">
+        <v>10001</v>
+      </c>
+      <c r="F18" s="3">
+        <v>40001</v>
+      </c>
+      <c r="G18" s="3">
+        <v>50001</v>
+      </c>
+      <c r="H18" s="3">
+        <v>60001</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C23" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="3">
-        <v>178</v>
-      </c>
-      <c r="I6" s="3">
-        <v>68</v>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C24" s="3">
+        <v>40001</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C30" s="3">
+        <v>50001</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C36" s="3">
+        <v>60001</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
